--- a/server/static/Excel/gdp.xlsx
+++ b/server/static/Excel/gdp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AA2F13-9431-4D19-98EF-7A896F5DD441}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B82A4F-7C53-447B-ACFE-0FD4D7D80CE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,42 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Показатели</t>
-  </si>
-  <si>
-    <t>(янв-май)</t>
-  </si>
-  <si>
-    <t>млрд тенге</t>
-  </si>
-  <si>
-    <t>23 494,9*</t>
-  </si>
-  <si>
-    <t>млрд долл. США</t>
-  </si>
-  <si>
-    <t>51,6*</t>
-  </si>
-  <si>
-    <t>на душу населения. $</t>
-  </si>
-  <si>
-    <t>Среднегодовой курс $</t>
-  </si>
-  <si>
-    <t>454,9*</t>
-  </si>
-  <si>
-    <t>Реальный рост ВВП в %</t>
-  </si>
-  <si>
-    <t>Производство товаров, ИФО</t>
-  </si>
-  <si>
-    <t>Производство услуг, ИФО</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+  <si>
+    <t>2020 г.</t>
+  </si>
+  <si>
+    <t>2021 г.</t>
+  </si>
+  <si>
+    <t>2022 г.</t>
+  </si>
+  <si>
+    <t>IV  кв</t>
+  </si>
+  <si>
+    <t>I кв</t>
+  </si>
+  <si>
+    <t>II кв</t>
+  </si>
+  <si>
+    <t>III кв</t>
+  </si>
+  <si>
+    <t>Республика Казахстан</t>
+  </si>
+  <si>
+    <t>Абайская</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Акмолинская</t>
+  </si>
+  <si>
+    <t>Актюбинская</t>
+  </si>
+  <si>
+    <t>Алматинская</t>
+  </si>
+  <si>
+    <t>Атырауская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ЗКО</t>
+  </si>
+  <si>
+    <t>Жамбылская</t>
+  </si>
+  <si>
+    <t>Жетысуская</t>
+  </si>
+  <si>
+    <t>Карагандинская</t>
+  </si>
+  <si>
+    <t>Костанайская</t>
+  </si>
+  <si>
+    <t>Кызылординская</t>
+  </si>
+  <si>
+    <t>Мангистауская</t>
+  </si>
+  <si>
+    <t>Павлодарская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> СКО</t>
+  </si>
+  <si>
+    <t>Туркестанская</t>
+  </si>
+  <si>
+    <t>Улытауская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ВКО</t>
+  </si>
+  <si>
+    <t>г. Астана</t>
+  </si>
+  <si>
+    <t>г. Алматы</t>
+  </si>
+  <si>
+    <t>г. Шымкент</t>
   </si>
 </sst>
 </file>
@@ -91,10 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,180 +427,740 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
-        <v>2020</v>
-      </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>114.1</v>
+      </c>
+      <c r="C3">
+        <v>108.7</v>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="E3">
+        <v>114.4</v>
+      </c>
+      <c r="F3">
+        <v>112.3</v>
+      </c>
+      <c r="G3">
+        <v>117.5</v>
+      </c>
+      <c r="H3">
+        <v>117.1</v>
+      </c>
+      <c r="I3">
+        <v>117.6</v>
+      </c>
+      <c r="J3">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>69532.600000000006</v>
-      </c>
-      <c r="C4" s="1">
-        <v>70649</v>
-      </c>
-      <c r="D4" s="1">
-        <v>83951.6</v>
-      </c>
-      <c r="E4" s="1">
-        <v>102891.8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>101.1</v>
+      </c>
+      <c r="D4">
+        <v>107.5</v>
+      </c>
+      <c r="E4">
+        <v>110.7</v>
+      </c>
+      <c r="F4">
+        <v>107.2</v>
+      </c>
+      <c r="G4">
+        <v>112.3</v>
+      </c>
+      <c r="H4">
+        <v>121.5</v>
+      </c>
+      <c r="I4">
+        <v>117.3</v>
+      </c>
+      <c r="J4">
+        <v>127.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>181.7</v>
+        <v>116.2</v>
       </c>
       <c r="C5">
-        <v>171.1</v>
+        <v>110.4</v>
       </c>
       <c r="D5">
-        <v>197.1</v>
+        <v>114.8</v>
       </c>
       <c r="E5">
-        <v>223.4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F5">
+        <v>113.1</v>
+      </c>
+      <c r="G5">
+        <v>117.7</v>
+      </c>
+      <c r="H5">
+        <v>109.7</v>
+      </c>
+      <c r="I5">
+        <v>109.8</v>
+      </c>
+      <c r="J5">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>9812</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9121</v>
-      </c>
-      <c r="D6" s="2">
-        <v>10220</v>
-      </c>
-      <c r="E6" s="2">
-        <v>11304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>108.4</v>
+      </c>
+      <c r="C6">
+        <v>113.9</v>
+      </c>
+      <c r="D6">
+        <v>117.3</v>
+      </c>
+      <c r="E6">
+        <v>116.6</v>
+      </c>
+      <c r="F6">
+        <v>118.4</v>
+      </c>
+      <c r="G6">
+        <v>115.2</v>
+      </c>
+      <c r="H6">
+        <v>117</v>
+      </c>
+      <c r="I6">
+        <v>115.8</v>
+      </c>
+      <c r="J6">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>382.7</v>
+        <v>113</v>
       </c>
       <c r="C7">
-        <v>412.9</v>
+        <v>111.3</v>
       </c>
       <c r="D7">
-        <v>426</v>
+        <v>122.9</v>
       </c>
       <c r="E7">
-        <v>460.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106.6</v>
+      </c>
+      <c r="F7">
+        <v>108.5</v>
+      </c>
+      <c r="G7">
+        <v>118.5</v>
+      </c>
+      <c r="H7">
+        <v>110.5</v>
+      </c>
+      <c r="I7">
+        <v>109.5</v>
+      </c>
+      <c r="J7">
+        <v>113.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>101.3</v>
+      </c>
+      <c r="C8">
+        <v>117.5</v>
+      </c>
+      <c r="D8">
+        <v>108</v>
+      </c>
+      <c r="E8">
+        <v>125.9</v>
+      </c>
+      <c r="F8">
+        <v>117.6</v>
+      </c>
+      <c r="G8">
+        <v>114.4</v>
+      </c>
+      <c r="H8">
+        <v>122.4</v>
+      </c>
+      <c r="I8">
+        <v>122.6</v>
+      </c>
+      <c r="J8">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>103.5</v>
+      </c>
+      <c r="C9">
+        <v>113</v>
+      </c>
+      <c r="D9">
+        <v>113.9</v>
+      </c>
+      <c r="E9">
+        <v>114.1</v>
+      </c>
+      <c r="F9">
+        <v>114</v>
+      </c>
+      <c r="G9">
+        <v>113.4</v>
+      </c>
+      <c r="H9">
+        <v>115.6</v>
+      </c>
+      <c r="I9">
+        <v>114.1</v>
+      </c>
+      <c r="J9">
+        <v>117.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>116.9</v>
+      </c>
+      <c r="C10">
+        <v>115.7</v>
+      </c>
+      <c r="D10">
+        <v>114.3</v>
+      </c>
+      <c r="E10">
+        <v>108.7</v>
+      </c>
+      <c r="F10">
+        <v>110.2</v>
+      </c>
+      <c r="G10">
+        <v>114.4</v>
+      </c>
+      <c r="H10">
+        <v>117.1</v>
+      </c>
+      <c r="I10">
+        <v>110.5</v>
+      </c>
+      <c r="J10">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>4.5</v>
-      </c>
-      <c r="C8">
-        <v>-2.5</v>
-      </c>
-      <c r="D8">
-        <v>4.3</v>
-      </c>
-      <c r="E8">
-        <v>3.2</v>
-      </c>
-      <c r="F8">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>104.9</v>
-      </c>
-      <c r="C9">
-        <v>102</v>
-      </c>
-      <c r="D9">
-        <v>103.6</v>
-      </c>
-      <c r="E9">
-        <v>103.2</v>
-      </c>
-      <c r="F9">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>104.4</v>
-      </c>
-      <c r="C10">
-        <v>94.7</v>
-      </c>
-      <c r="D10">
-        <v>104</v>
-      </c>
-      <c r="E10">
-        <v>102.6</v>
-      </c>
-      <c r="F10">
-        <v>104.9</v>
+      <c r="C11">
+        <v>103.8</v>
+      </c>
+      <c r="D11">
+        <v>109.1</v>
+      </c>
+      <c r="E11">
+        <v>113.4</v>
+      </c>
+      <c r="F11">
+        <v>113.3</v>
+      </c>
+      <c r="G11">
+        <v>105.8</v>
+      </c>
+      <c r="H11">
+        <v>114.1</v>
+      </c>
+      <c r="I11">
+        <v>94.4</v>
+      </c>
+      <c r="J11">
+        <v>114.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>127.7</v>
+      </c>
+      <c r="C12">
+        <v>103.3</v>
+      </c>
+      <c r="D12">
+        <v>109.7</v>
+      </c>
+      <c r="E12">
+        <v>103.7</v>
+      </c>
+      <c r="F12">
+        <v>107</v>
+      </c>
+      <c r="G12">
+        <v>117.3</v>
+      </c>
+      <c r="H12">
+        <v>118.7</v>
+      </c>
+      <c r="I12">
+        <v>118</v>
+      </c>
+      <c r="J12">
+        <v>120.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>118.2</v>
+      </c>
+      <c r="C13">
+        <v>113.4</v>
+      </c>
+      <c r="D13">
+        <v>120.2</v>
+      </c>
+      <c r="E13">
+        <v>121.2</v>
+      </c>
+      <c r="F13">
+        <v>107.5</v>
+      </c>
+      <c r="G13">
+        <v>116.7</v>
+      </c>
+      <c r="H13">
+        <v>120.4</v>
+      </c>
+      <c r="I13">
+        <v>115.4</v>
+      </c>
+      <c r="J13">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>112.3</v>
+      </c>
+      <c r="C14">
+        <v>105.5</v>
+      </c>
+      <c r="D14">
+        <v>110.3</v>
+      </c>
+      <c r="E14">
+        <v>111.1</v>
+      </c>
+      <c r="F14">
+        <v>107.8</v>
+      </c>
+      <c r="G14">
+        <v>120.9</v>
+      </c>
+      <c r="H14">
+        <v>126.1</v>
+      </c>
+      <c r="I14">
+        <v>115.9</v>
+      </c>
+      <c r="J14">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>107.6</v>
+      </c>
+      <c r="C15">
+        <v>104.2</v>
+      </c>
+      <c r="D15">
+        <v>110.5</v>
+      </c>
+      <c r="E15">
+        <v>117.3</v>
+      </c>
+      <c r="F15">
+        <v>110.3</v>
+      </c>
+      <c r="G15">
+        <v>122.8</v>
+      </c>
+      <c r="H15">
+        <v>132.9</v>
+      </c>
+      <c r="I15">
+        <v>132</v>
+      </c>
+      <c r="J15">
+        <v>129.19999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>113.8</v>
+      </c>
+      <c r="C16">
+        <v>114</v>
+      </c>
+      <c r="D16">
+        <v>118.1</v>
+      </c>
+      <c r="E16">
+        <v>116.4</v>
+      </c>
+      <c r="F16">
+        <v>113.4</v>
+      </c>
+      <c r="G16">
+        <v>123</v>
+      </c>
+      <c r="H16">
+        <v>122.2</v>
+      </c>
+      <c r="I16">
+        <v>121.6</v>
+      </c>
+      <c r="J16">
+        <v>122.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>121</v>
+      </c>
+      <c r="C17">
+        <v>110.9</v>
+      </c>
+      <c r="D17">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>115.9</v>
+      </c>
+      <c r="F17">
+        <v>117.9</v>
+      </c>
+      <c r="G17">
+        <v>121.5</v>
+      </c>
+      <c r="H17">
+        <v>117.8</v>
+      </c>
+      <c r="I17">
+        <v>119.1</v>
+      </c>
+      <c r="J17">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>118.9</v>
+      </c>
+      <c r="C18">
+        <v>108.2</v>
+      </c>
+      <c r="D18">
+        <v>110.8</v>
+      </c>
+      <c r="E18">
+        <v>109.8</v>
+      </c>
+      <c r="F18">
+        <v>106.8</v>
+      </c>
+      <c r="G18">
+        <v>117.5</v>
+      </c>
+      <c r="H18">
+        <v>115.9</v>
+      </c>
+      <c r="I18">
+        <v>112.4</v>
+      </c>
+      <c r="J18">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>113.1</v>
+      </c>
+      <c r="D19">
+        <v>135.1</v>
+      </c>
+      <c r="E19">
+        <v>122.8</v>
+      </c>
+      <c r="F19">
+        <v>117.9</v>
+      </c>
+      <c r="G19">
+        <v>130</v>
+      </c>
+      <c r="H19">
+        <v>121.9</v>
+      </c>
+      <c r="I19">
+        <v>162.1</v>
+      </c>
+      <c r="J19">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>113.1</v>
+      </c>
+      <c r="C20">
+        <v>100.6</v>
+      </c>
+      <c r="D20">
+        <v>120.1</v>
+      </c>
+      <c r="E20">
+        <v>109.8</v>
+      </c>
+      <c r="F20">
+        <v>119.1</v>
+      </c>
+      <c r="G20">
+        <v>115</v>
+      </c>
+      <c r="H20">
+        <v>124.1</v>
+      </c>
+      <c r="I20">
+        <v>116.4</v>
+      </c>
+      <c r="J20">
+        <v>113.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>113.5</v>
+      </c>
+      <c r="C21">
+        <v>106.4</v>
+      </c>
+      <c r="D21">
+        <v>113.6</v>
+      </c>
+      <c r="E21">
+        <v>111.6</v>
+      </c>
+      <c r="F21">
+        <v>114</v>
+      </c>
+      <c r="G21">
+        <v>109.7</v>
+      </c>
+      <c r="H21">
+        <v>105.6</v>
+      </c>
+      <c r="I21">
+        <v>104.6</v>
+      </c>
+      <c r="J21">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>113.6</v>
+      </c>
+      <c r="C22">
+        <v>102.7</v>
+      </c>
+      <c r="D22">
+        <v>112.9</v>
+      </c>
+      <c r="E22">
+        <v>113.2</v>
+      </c>
+      <c r="F22">
+        <v>107.7</v>
+      </c>
+      <c r="G22">
+        <v>120.5</v>
+      </c>
+      <c r="H22">
+        <v>114.8</v>
+      </c>
+      <c r="I22">
+        <v>116.2</v>
+      </c>
+      <c r="J22">
+        <v>119.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>107.2</v>
+      </c>
+      <c r="C23">
+        <v>106.5</v>
+      </c>
+      <c r="D23">
+        <v>113.8</v>
+      </c>
+      <c r="E23">
+        <v>107.4</v>
+      </c>
+      <c r="F23">
+        <v>104.3</v>
+      </c>
+      <c r="G23">
+        <v>114.9</v>
+      </c>
+      <c r="H23">
+        <v>109.4</v>
+      </c>
+      <c r="I23">
+        <v>109</v>
+      </c>
+      <c r="J23">
+        <v>110.7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
